--- a/Geant4Work/data/scatteringRate/ScatteringRateDev0405.xlsx
+++ b/Geant4Work/data/scatteringRate/ScatteringRateDev0405.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="18780" windowHeight="10500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0430" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>点源</t>
   </si>
@@ -43,9 +44,6 @@
     <t>未散射粒子数</t>
   </si>
   <si>
-    <t>电子对效应粒子数</t>
-  </si>
-  <si>
     <t>总/未散射</t>
   </si>
   <si>
@@ -62,10 +60,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,7 +75,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,43 +83,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -136,8 +97,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +131,42 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,17 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,13 +205,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,15 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,7 +233,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,13 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,67 +383,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,85 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +467,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,11 +503,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,21 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -549,17 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,148 +566,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,8 +1066,8 @@
   <sheetPr/>
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1131,7 +1129,7 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1139,9 +1137,6 @@
       </c>
       <c r="K2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
@@ -1180,19 +1175,16 @@
       <c r="H3" s="1">
         <v>153800</v>
       </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="I3" s="6" t="e">
+        <f>(G3+#REF!)/(H3+#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J3" s="6">
-        <f>(G3+I3)/(H3+I3)</f>
-        <v>1.27396618985696</v>
-      </c>
-      <c r="K3" s="6">
         <v>1.38</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L32" si="2">ABS(J3-K3)/K3</f>
-        <v>0.0768360943065528</v>
+      <c r="K3" s="1" t="e">
+        <f t="shared" ref="K3:K32" si="2">ABS(I3-J3)/J3</f>
+        <v>#REF!</v>
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -1231,14 +1223,14 @@
       <c r="H4" s="1">
         <v>1420</v>
       </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I3:I32" si="3">G4/H4</f>
+        <v>1.7669014084507</v>
+      </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J3:J32" si="3">G4/H4</f>
-        <v>1.7669014084507</v>
-      </c>
-      <c r="K4" s="6">
         <v>1.67</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1">
         <f t="shared" si="2"/>
         <v>0.0580247954794636</v>
       </c>
@@ -1279,14 +1271,14 @@
       <c r="H5" s="1">
         <v>1441</v>
       </c>
+      <c r="I5" s="6">
+        <f t="shared" si="3"/>
+        <v>1.91325468424705</v>
+      </c>
       <c r="J5" s="6">
-        <f t="shared" si="3"/>
-        <v>1.91325468424705</v>
-      </c>
-      <c r="K5" s="6">
         <v>1.77</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
         <v>0.0809348498570907</v>
       </c>
@@ -1327,14 +1319,14 @@
       <c r="H6" s="1">
         <v>1380</v>
       </c>
+      <c r="I6" s="6">
+        <f t="shared" si="3"/>
+        <v>1.96086956521739</v>
+      </c>
       <c r="J6" s="6">
-        <f t="shared" si="3"/>
-        <v>1.96086956521739</v>
-      </c>
-      <c r="K6" s="6">
         <v>1.68</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
         <v>0.167184265010352</v>
       </c>
@@ -1375,14 +1367,14 @@
       <c r="H7" s="1">
         <v>1357</v>
       </c>
+      <c r="I7" s="6">
+        <f t="shared" si="3"/>
+        <v>1.88209285187915</v>
+      </c>
       <c r="J7" s="6">
-        <f t="shared" si="3"/>
-        <v>1.88209285187915</v>
-      </c>
-      <c r="K7" s="6">
         <v>1.57</v>
       </c>
-      <c r="L7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
         <v>0.198785255973978</v>
       </c>
@@ -1425,14 +1417,14 @@
         <f>1311+1961</f>
         <v>3272</v>
       </c>
-      <c r="J8" s="6">
+      <c r="I8" s="6">
         <f t="shared" si="3"/>
         <v>1.32365525672372</v>
       </c>
-      <c r="K8" s="7">
+      <c r="J8" s="7">
         <v>1.3</v>
       </c>
-      <c r="L8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>0.0181963513259356</v>
       </c>
@@ -1473,14 +1465,14 @@
       <c r="H9" s="1">
         <v>232</v>
       </c>
+      <c r="I9" s="6">
+        <f t="shared" si="3"/>
+        <v>1.59913793103448</v>
+      </c>
       <c r="J9" s="6">
-        <f t="shared" si="3"/>
-        <v>1.59913793103448</v>
-      </c>
-      <c r="K9" s="6">
         <v>1.61</v>
       </c>
-      <c r="L9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>0.0067466266866568</v>
       </c>
@@ -1521,14 +1513,14 @@
       <c r="H10" s="1">
         <v>218</v>
       </c>
+      <c r="I10" s="6">
+        <f t="shared" si="3"/>
+        <v>2.26146788990826</v>
+      </c>
       <c r="J10" s="6">
-        <f t="shared" si="3"/>
-        <v>2.26146788990826</v>
-      </c>
-      <c r="K10" s="6">
         <v>2.19</v>
       </c>
-      <c r="L10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>0.0326337396841356</v>
       </c>
@@ -1569,14 +1561,14 @@
       <c r="H11" s="1">
         <v>212</v>
       </c>
+      <c r="I11" s="6">
+        <f t="shared" si="3"/>
+        <v>2.82547169811321</v>
+      </c>
       <c r="J11" s="6">
-        <f t="shared" si="3"/>
-        <v>2.82547169811321</v>
-      </c>
-      <c r="K11" s="6">
         <v>2.54</v>
       </c>
-      <c r="L11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>0.112390432328034</v>
       </c>
@@ -1617,14 +1609,14 @@
       <c r="H12" s="1">
         <v>205</v>
       </c>
+      <c r="I12" s="6">
+        <f t="shared" si="3"/>
+        <v>2.82926829268293</v>
+      </c>
       <c r="J12" s="6">
-        <f t="shared" si="3"/>
-        <v>2.82926829268293</v>
-      </c>
-      <c r="K12" s="6">
         <v>2.44</v>
       </c>
-      <c r="L12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>0.15953618552579</v>
       </c>
@@ -1665,14 +1657,14 @@
       <c r="H13" s="1">
         <v>193</v>
       </c>
+      <c r="I13" s="6">
+        <f t="shared" si="3"/>
+        <v>2.89119170984456</v>
+      </c>
       <c r="J13" s="6">
-        <f t="shared" si="3"/>
-        <v>2.89119170984456</v>
-      </c>
-      <c r="K13" s="6">
         <v>2.27</v>
       </c>
-      <c r="L13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>0.273652735614343</v>
       </c>
@@ -1713,14 +1705,14 @@
       <c r="H14" s="1">
         <v>166</v>
       </c>
+      <c r="I14" s="6">
+        <f t="shared" si="3"/>
+        <v>2.46385542168675</v>
+      </c>
       <c r="J14" s="6">
-        <f t="shared" si="3"/>
-        <v>2.46385542168675</v>
-      </c>
-      <c r="K14" s="6">
         <v>1.74</v>
       </c>
-      <c r="L14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>0.41600886303836</v>
       </c>
@@ -1757,14 +1749,14 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="J15" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="I15" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="6">
         <v>1.88</v>
       </c>
-      <c r="L15" s="1" t="e">
+      <c r="K15" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1801,14 +1793,14 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="J16" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="I16" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="7">
         <v>2.89</v>
       </c>
-      <c r="L16" s="1" t="e">
+      <c r="K16" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1845,14 +1837,14 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="J17" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="I17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="6">
         <v>3.36</v>
       </c>
-      <c r="L17" s="1" t="e">
+      <c r="K17" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1889,14 +1881,14 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="J18" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="I18" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="6">
         <v>3.55</v>
       </c>
-      <c r="L18" s="1" t="e">
+      <c r="K18" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1933,14 +1925,14 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="J19" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="I19" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="6">
         <v>3.29</v>
       </c>
-      <c r="L19" s="1" t="e">
+      <c r="K19" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1977,14 +1969,14 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="J20" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="I20" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="6">
         <v>2.61</v>
       </c>
-      <c r="L20" s="1" t="e">
+      <c r="K20" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2021,14 +2013,14 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="J21" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="I21" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="6">
         <v>2.09</v>
       </c>
-      <c r="L21" s="1" t="e">
+      <c r="K21" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2065,14 +2057,14 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="J22" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="I22" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="7">
         <v>3.51</v>
       </c>
-      <c r="L22" s="1" t="e">
+      <c r="K22" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2109,14 +2101,14 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="J23" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="I23" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="6">
         <v>5.05</v>
       </c>
-      <c r="L23" s="1" t="e">
+      <c r="K23" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2153,14 +2145,14 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="J24" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="I24" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="6">
         <v>5.41</v>
       </c>
-      <c r="L24" s="1" t="e">
+      <c r="K24" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2197,14 +2189,14 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="I25" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="6">
         <v>5.38</v>
       </c>
-      <c r="L25" s="1" t="e">
+      <c r="K25" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2241,14 +2233,14 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="J26" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="I26" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="6">
         <v>4.61</v>
       </c>
-      <c r="L26" s="1" t="e">
+      <c r="K26" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2285,14 +2277,14 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="J27" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="I27" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="6">
         <v>2.36</v>
       </c>
-      <c r="L27" s="1" t="e">
+      <c r="K27" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2329,14 +2321,14 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="J28" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="I28" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="6">
         <v>4.43</v>
       </c>
-      <c r="L28" s="1" t="e">
+      <c r="K28" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2373,14 +2365,14 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="J29" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="I29" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="6">
         <v>7.39</v>
       </c>
-      <c r="L29" s="1" t="e">
+      <c r="K29" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2417,14 +2409,14 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="J30" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="6">
+      <c r="I30" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="6">
         <v>8.17</v>
       </c>
-      <c r="L30" s="1" t="e">
+      <c r="K30" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2461,14 +2453,14 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="J31" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="I31" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="6">
         <v>9.45</v>
       </c>
-      <c r="L31" s="1" t="e">
+      <c r="K31" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2505,14 +2497,14 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="J32" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="I32" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="6">
         <v>11</v>
       </c>
-      <c r="L32" s="1" t="e">
+      <c r="K32" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2536,4 +2528,1195 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <f>11.35*0.1614</f>
+        <v>1.83189</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D32" si="0">1/C3</f>
+        <v>0.545884305280339</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F32" si="1">D3*E3*10</f>
+        <v>10.9176861056068</v>
+      </c>
+      <c r="G3" s="1">
+        <v>632522</v>
+      </c>
+      <c r="H3" s="1">
+        <v>460655</v>
+      </c>
+      <c r="I3" s="6">
+        <f>G3/H3</f>
+        <v>1.37309266153629</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K32" si="2">ABS(I3-J3)/J3</f>
+        <v>0.00500531772732556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>11.35*0.07102</f>
+        <v>0.806077</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2405762724901</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>24.8115254498019</v>
+      </c>
+      <c r="G4" s="1">
+        <v>765016</v>
+      </c>
+      <c r="H4" s="1">
+        <v>430342</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I32" si="3">G4/H4</f>
+        <v>1.77769309061165</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.0644868806057803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>11.35*0.04606</f>
+        <v>0.522781</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.91284687086945</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>38.2569374173889</v>
+      </c>
+      <c r="G5" s="1">
+        <v>847195</v>
+      </c>
+      <c r="H5" s="1">
+        <v>417059</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="3"/>
+        <v>2.03135527587224</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.147658347950417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>11.35*0.04234</f>
+        <v>0.480559</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.08090994029869</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>41.6181988059739</v>
+      </c>
+      <c r="G6" s="1">
+        <v>840892</v>
+      </c>
+      <c r="H6" s="1">
+        <v>414635</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="3"/>
+        <v>2.02802947170403</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.207160399823827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>11.35*0.04197</f>
+        <v>0.4763595</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.09925486948408</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>41.9850973896815</v>
+      </c>
+      <c r="G7" s="1">
+        <v>809827</v>
+      </c>
+      <c r="H7" s="1">
+        <v>407076</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="3"/>
+        <v>1.98937544831923</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.267118119948556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <f>11.35*0.04675</f>
+        <v>0.5306125</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.88461447855073</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>37.6922895710146</v>
+      </c>
+      <c r="G8" s="1">
+        <v>725388</v>
+      </c>
+      <c r="H8" s="1">
+        <v>392235</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="3"/>
+        <v>1.84937091284562</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.422593009881243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="1">
+        <f>11.35*0.1614</f>
+        <v>1.83189</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.545884305280339</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>21.8353722112136</v>
+      </c>
+      <c r="G9" s="1">
+        <v>112766</v>
+      </c>
+      <c r="H9" s="1">
+        <v>70720</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="3"/>
+        <v>1.59454185520362</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.61</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.00960133217166471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <f>11.35*0.07102</f>
+        <v>0.806077</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2405762724901</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>49.6230508996039</v>
+      </c>
+      <c r="G10" s="1">
+        <v>146307</v>
+      </c>
+      <c r="H10" s="1">
+        <v>62032</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="3"/>
+        <v>2.35857299458344</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.076973970129425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <f>11.35*0.04606</f>
+        <v>0.522781</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.91284687086945</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>76.5138748347779</v>
+      </c>
+      <c r="G11" s="1">
+        <v>174993</v>
+      </c>
+      <c r="H11" s="1">
+        <v>58458</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="3"/>
+        <v>2.99348250025659</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2.54</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.178536417423856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <f>11.35*0.04234</f>
+        <v>0.480559</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.08090994029869</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>83.2363976119478</v>
+      </c>
+      <c r="G12" s="1">
+        <v>178741</v>
+      </c>
+      <c r="H12" s="1">
+        <v>57451</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="3"/>
+        <v>3.11119040573706</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2.44</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27507803513814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <f>11.35*0.04197</f>
+        <v>0.4763595</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.09925486948408</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>83.9701947793631</v>
+      </c>
+      <c r="G13" s="1">
+        <v>173093</v>
+      </c>
+      <c r="H13" s="1">
+        <v>55472</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="3"/>
+        <v>3.12036703201615</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.374611027319891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <f>11.35*0.04675</f>
+        <v>0.5306125</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.88461447855073</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>75.3845791420293</v>
+      </c>
+      <c r="G14" s="1">
+        <v>162690</v>
+      </c>
+      <c r="H14" s="1">
+        <v>51864</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="3"/>
+        <v>3.13685793614068</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.802791917322227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="1">
+        <f>11.35*0.1614</f>
+        <v>1.83189</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.545884305280339</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>38.2119013696237</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7743</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4160</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="3"/>
+        <v>1.86129807692308</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.0099478314238952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <f>11.35*0.07102</f>
+        <v>0.806077</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2405762724901</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>86.8403390743068</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10562</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3308</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="3"/>
+        <v>3.19286577992745</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2.89</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.104797847725761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <f>11.35*0.04606</f>
+        <v>0.522781</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.91284687086945</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>133.899280960861</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13617</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3004</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="3"/>
+        <v>4.53295605858855</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3.36</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.349094065056116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <f>11.35*0.04234</f>
+        <v>0.480559</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.08090994029869</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>145.663695820909</v>
+      </c>
+      <c r="G18" s="1">
+        <v>14731</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2950</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="3"/>
+        <v>4.9935593220339</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.406636428741943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <f>11.35*0.04197</f>
+        <v>0.4763595</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.09925486948408</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>146.947840863885</v>
+      </c>
+      <c r="G19" s="1">
+        <v>14736</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2699</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="3"/>
+        <v>5.45979992589848</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3.29</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.659513655288292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <f>11.35*0.04675</f>
+        <v>0.5306125</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.88461447855073</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>131.923013498551</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15975</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2391</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="3"/>
+        <v>6.68130489335006</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2.61</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.55988693231803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="1">
+        <f>11.35*0.1614</f>
+        <v>1.83189</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.545884305280339</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>54.5884305280339</v>
+      </c>
+      <c r="G21" s="1">
+        <v>503</v>
+      </c>
+      <c r="H21" s="1">
+        <v>230</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="3"/>
+        <v>2.18695652173913</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.0463906802579572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <f>11.35*0.07102</f>
+        <v>0.806077</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2405762724901</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>124.05762724901</v>
+      </c>
+      <c r="G22" s="1">
+        <v>752</v>
+      </c>
+      <c r="H22" s="1">
+        <v>201</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="3"/>
+        <v>3.74129353233831</v>
+      </c>
+      <c r="J22" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.0658955932587774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <f>11.35*0.04606</f>
+        <v>0.522781</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.91284687086945</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>191.284687086945</v>
+      </c>
+      <c r="G23" s="1">
+        <v>980</v>
+      </c>
+      <c r="H23" s="1">
+        <v>166</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="3"/>
+        <v>5.90361445783132</v>
+      </c>
+      <c r="J23" s="6">
+        <v>5.05</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.169032565907193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <f>11.35*0.04234</f>
+        <v>0.480559</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.08090994029869</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>208.090994029869</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1093</v>
+      </c>
+      <c r="H24" s="1">
+        <v>136</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="3"/>
+        <v>8.03676470588235</v>
+      </c>
+      <c r="J24" s="6">
+        <v>5.41</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.485538762639991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <f>11.35*0.04197</f>
+        <v>0.4763595</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.09925486948408</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>209.925486948408</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1086</v>
+      </c>
+      <c r="H25" s="1">
+        <v>131</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="3"/>
+        <v>8.29007633587786</v>
+      </c>
+      <c r="J25" s="6">
+        <v>5.38</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.540906382133432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <f>11.35*0.04675</f>
+        <v>0.5306125</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.88461447855073</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>188.461447855073</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1532</v>
+      </c>
+      <c r="H26" s="1">
+        <v>115</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="3"/>
+        <v>13.3217391304348</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4.61</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.88974818447609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="1">
+        <f>11.35*0.1614</f>
+        <v>1.83189</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.545884305280339</v>
+      </c>
+      <c r="E27" s="1">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>81.8826457920508</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2.36</v>
+      </c>
+      <c r="K27" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <f>11.35*0.07102</f>
+        <v>0.806077</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2405762724901</v>
+      </c>
+      <c r="E28" s="1">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>186.086440873515</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="6">
+        <v>4.43</v>
+      </c>
+      <c r="K28" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <f>11.35*0.04606</f>
+        <v>0.522781</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.91284687086945</v>
+      </c>
+      <c r="E29" s="1">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>286.927030630417</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="6">
+        <v>7.39</v>
+      </c>
+      <c r="K29" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <f>11.35*0.04234</f>
+        <v>0.480559</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>2.08090994029869</v>
+      </c>
+      <c r="E30" s="1">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>312.136491044804</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="6">
+        <v>8.17</v>
+      </c>
+      <c r="K30" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <f>11.35*0.04197</f>
+        <v>0.4763595</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.09925486948408</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>314.888230422611</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="6">
+        <v>9.45</v>
+      </c>
+      <c r="K31" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <f>11.35*0.04675</f>
+        <v>0.5306125</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.88461447855073</v>
+      </c>
+      <c r="E32" s="1">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>282.69217178261</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="6">
+        <v>11</v>
+      </c>
+      <c r="K32" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A1:A32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>